--- a/Data/RECC_Classifications_Master_V2.0.xlsx
+++ b/Data/RECC_Classifications_Master_V2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="16" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Cover_Dimensions_Aspects" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="1052">
   <si>
     <t>Name</t>
   </si>
@@ -3610,21 +3610,12 @@
     <t>solar photovoltaic power plant</t>
   </si>
   <si>
-    <t xml:space="preserve">concentrating solar power plant (CSP) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wind power plant onshore </t>
-  </si>
-  <si>
     <t>wind power plant offshore</t>
   </si>
   <si>
     <t>hydro power plant</t>
   </si>
   <si>
-    <t xml:space="preserve">nuclear power plant </t>
-  </si>
-  <si>
     <t>coal power plant</t>
   </si>
   <si>
@@ -4184,6 +4175,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>concentrating solar power plant (CSP)</t>
+  </si>
+  <si>
+    <t>nuclear power plant</t>
+  </si>
+  <si>
+    <t>wind power plant onshore</t>
   </si>
 </sst>
 </file>
@@ -6032,7 +6032,7 @@
         <v>82</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="D9" s="26" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -6062,7 +6062,7 @@
         <v>350</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="D11" s="26" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="D12" s="26" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -6093,7 +6093,7 @@
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="D13" s="26" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="D14" s="26" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="D15" s="26" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E15">
         <v>13</v>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="D16" s="26" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="17" spans="4:12" ht="15" x14ac:dyDescent="0.35">
       <c r="D17" s="26" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="18" spans="4:12" ht="15" x14ac:dyDescent="0.35">
       <c r="D18" s="26" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="19" spans="4:12" ht="15" x14ac:dyDescent="0.35">
       <c r="D19" s="26" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="20" spans="4:12" ht="15" x14ac:dyDescent="0.35">
       <c r="D20" s="26" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D21" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E21">
         <v>19</v>
@@ -6183,7 +6183,7 @@
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E23">
         <v>21</v>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E33">
         <v>31</v>
@@ -6285,7 +6285,7 @@
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E34">
         <v>32</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E35">
         <v>33</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E37">
         <v>35</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E38">
         <v>36</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E39">
         <v>37</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E40">
         <v>38</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E41">
         <v>39</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E42">
         <v>40</v>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E43">
         <v>41</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E44">
         <v>42</v>
@@ -6373,7 +6373,7 @@
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E45">
         <v>43</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E46">
         <v>44</v>
@@ -6389,7 +6389,7 @@
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E47">
         <v>45</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E48">
         <v>46</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E49">
         <v>47</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E50">
         <v>48</v>
@@ -6421,7 +6421,7 @@
     </row>
     <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E51">
         <v>49</v>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E52">
         <v>50</v>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E53">
         <v>51</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E54">
         <v>52</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E55">
         <v>53</v>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E56">
         <v>54</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="57" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E57">
         <v>55</v>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="58" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E58">
         <v>56</v>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="59" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D59" s="7" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E59">
         <v>57</v>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="60" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E60">
         <v>58</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E61">
         <v>59</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E62">
         <v>60</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="63" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E63">
         <v>61</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E64">
         <v>62</v>
@@ -6534,7 +6534,7 @@
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E65">
         <v>63</v>
@@ -6542,7 +6542,7 @@
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E66">
         <v>64</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E67">
         <v>65</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E68">
         <v>66</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E69">
         <v>67</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E70">
         <v>68</v>
@@ -6582,7 +6582,7 @@
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E71">
         <v>69</v>
@@ -6590,7 +6590,7 @@
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E72">
         <v>70</v>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E73">
         <v>71</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E74">
         <v>72</v>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E75">
         <v>73</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E76">
         <v>74</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E77">
         <v>75</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E78">
         <v>76</v>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E79">
         <v>77</v>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E80">
         <v>78</v>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E81">
         <v>79</v>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E82">
         <v>80</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E83">
         <v>81</v>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E84">
         <v>82</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E85">
         <v>83</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E86">
         <v>84</v>
@@ -6710,7 +6710,7 @@
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E87">
         <v>85</v>
@@ -6718,7 +6718,7 @@
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E88">
         <v>86</v>
@@ -6726,7 +6726,7 @@
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E89">
         <v>87</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E90">
         <v>88</v>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E91">
         <v>89</v>
@@ -6853,8 +6853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D74" sqref="C74:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6889,7 +6889,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D2" t="s">
         <v>315</v>
@@ -7021,7 +7021,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -7036,7 +7036,7 @@
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -7048,7 +7048,7 @@
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -7059,7 +7059,7 @@
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -7070,7 +7070,7 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -7081,7 +7081,7 @@
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -7092,7 +7092,7 @@
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -7103,7 +7103,7 @@
         <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -7114,7 +7114,7 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.3">
@@ -7125,7 +7125,7 @@
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.3">
@@ -7136,7 +7136,7 @@
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.3">
@@ -7147,7 +7147,7 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.3">
@@ -7158,7 +7158,7 @@
         <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.3">
@@ -7169,7 +7169,7 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.3">
@@ -7180,7 +7180,7 @@
         <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.3">
@@ -7191,7 +7191,7 @@
         <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="24" spans="4:10" ht="15" x14ac:dyDescent="0.35">
@@ -7857,7 +7857,6 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="41"/>
       <c r="D74" s="41" t="s">
         <v>859</v>
       </c>
@@ -7869,9 +7868,8 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="41"/>
       <c r="D75" s="41" t="s">
-        <v>860</v>
+        <v>1049</v>
       </c>
       <c r="E75">
         <v>73</v>
@@ -7883,7 +7881,7 @@
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="41"/>
       <c r="D76" s="41" t="s">
-        <v>861</v>
+        <v>1051</v>
       </c>
       <c r="E76">
         <v>74</v>
@@ -7895,7 +7893,7 @@
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="41"/>
       <c r="D77" s="41" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E77">
         <v>75</v>
@@ -7907,7 +7905,7 @@
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="41"/>
       <c r="D78" s="41" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E78">
         <v>76</v>
@@ -7919,7 +7917,7 @@
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="41"/>
       <c r="D79" s="41" t="s">
-        <v>864</v>
+        <v>1050</v>
       </c>
       <c r="E79">
         <v>77</v>
@@ -7931,7 +7929,7 @@
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="41"/>
       <c r="D80" s="41" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E80">
         <v>78</v>
@@ -7943,10 +7941,10 @@
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="41"/>
       <c r="C81" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E81">
         <v>79</v>
@@ -7958,7 +7956,7 @@
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="41"/>
       <c r="D82" s="41" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E82">
         <v>80</v>
@@ -7970,7 +7968,7 @@
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="41"/>
       <c r="D83" s="41" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E83">
         <v>81</v>
@@ -7982,7 +7980,7 @@
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="41"/>
       <c r="D84" s="41" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E84">
         <v>82</v>
@@ -7992,12 +7990,11 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="41"/>
       <c r="C85" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E85">
         <v>83</v>
@@ -8007,12 +8004,11 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="41"/>
       <c r="C86" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E86">
         <v>84</v>
@@ -8022,9 +8018,8 @@
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="41"/>
       <c r="D87" s="41" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E87">
         <v>85</v>
@@ -8034,12 +8029,11 @@
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="41"/>
       <c r="C88" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D88" s="41" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E88">
         <v>86</v>
@@ -8050,7 +8044,7 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E89">
         <v>87</v>
@@ -8061,7 +8055,7 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E90">
         <v>88</v>
@@ -8071,9 +8065,8 @@
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="41"/>
       <c r="D91" s="41" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E91">
         <v>89</v>
@@ -8093,7 +8086,7 @@
         <v>330</v>
       </c>
       <c r="J92" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
@@ -8107,7 +8100,7 @@
         <v>330</v>
       </c>
       <c r="J93" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
@@ -8121,7 +8114,7 @@
         <v>330</v>
       </c>
       <c r="J94" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.3">
@@ -8135,7 +8128,7 @@
         <v>330</v>
       </c>
       <c r="J95" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.3">
@@ -8149,7 +8142,7 @@
         <v>330</v>
       </c>
       <c r="J96" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="97" spans="4:10" x14ac:dyDescent="0.3">
@@ -8163,7 +8156,7 @@
         <v>330</v>
       </c>
       <c r="J97" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="98" spans="4:10" x14ac:dyDescent="0.3">
@@ -8177,7 +8170,7 @@
         <v>330</v>
       </c>
       <c r="J98" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="99" spans="4:10" x14ac:dyDescent="0.3">
@@ -8191,7 +8184,7 @@
         <v>330</v>
       </c>
       <c r="J99" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="100" spans="4:10" x14ac:dyDescent="0.3">
@@ -8205,7 +8198,7 @@
         <v>330</v>
       </c>
       <c r="J100" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="101" spans="4:10" x14ac:dyDescent="0.3">
@@ -8219,7 +8212,7 @@
         <v>330</v>
       </c>
       <c r="J101" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.3">
@@ -8233,7 +8226,7 @@
         <v>330</v>
       </c>
       <c r="J102" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="103" spans="4:10" x14ac:dyDescent="0.3">
@@ -8247,7 +8240,7 @@
         <v>330</v>
       </c>
       <c r="J103" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -8293,7 +8286,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D2" t="s">
         <v>694</v>
@@ -8829,7 +8822,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8861,7 +8854,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D2" t="s">
         <v>636</v>
@@ -8879,7 +8872,7 @@
         <v>791</v>
       </c>
       <c r="D3" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -8951,7 +8944,7 @@
         <v>82</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -9014,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>10</v>
@@ -9032,7 +9025,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D2" t="s">
         <v>315</v>
@@ -9047,7 +9040,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D3" t="s">
         <v>316</v>
@@ -9077,7 +9070,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D5" t="s">
         <v>312</v>
@@ -9185,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>10</v>
@@ -9202,7 +9195,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D2" t="s">
         <v>830</v>
@@ -9217,7 +9210,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D3" t="s">
         <v>831</v>
@@ -9247,7 +9240,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D5" t="s">
         <v>833</v>
@@ -9437,10 +9430,10 @@
   <dimension ref="A1:BJ1311"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="S11" sqref="S11:S16"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10910,9 +10903,9 @@
         <f>Sector_infrastructure!D2</f>
         <v>roads, local</v>
       </c>
-      <c r="AA11" s="28" t="str">
-        <f>Sector_industry!D2</f>
-        <v>solar photovoltaic power plant</v>
+      <c r="AA11" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB11" s="28" t="str">
         <f>Sector_appliances!D2</f>
@@ -11043,9 +11036,9 @@
         <f>Sector_infrastructure!D3</f>
         <v>roads, collectors and distributors</v>
       </c>
-      <c r="AA12" s="28" t="str">
-        <f>Sector_industry!D3</f>
-        <v xml:space="preserve">concentrating solar power plant (CSP) </v>
+      <c r="AA12" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB12" s="28" t="str">
         <f>Sector_appliances!D3</f>
@@ -11173,9 +11166,9 @@
         <f>Sector_infrastructure!D4</f>
         <v>roads, arterial</v>
       </c>
-      <c r="AA13" s="28" t="str">
-        <f>Sector_industry!D4</f>
-        <v xml:space="preserve">wind power plant onshore </v>
+      <c r="AA13" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB13" s="28" t="str">
         <f>Sector_appliances!D4</f>
@@ -11303,9 +11296,9 @@
         <f>Sector_infrastructure!D5</f>
         <v>roads, freeway</v>
       </c>
-      <c r="AA14" s="28" t="str">
-        <f>Sector_industry!D5</f>
-        <v>wind power plant offshore</v>
+      <c r="AA14" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB14" s="28" t="str">
         <f>Sector_appliances!D5</f>
@@ -11433,9 +11426,9 @@
         <f>Sector_infrastructure!D6</f>
         <v>rail, single track, unelectrified</v>
       </c>
-      <c r="AA15" s="28" t="str">
-        <f>Sector_industry!D6</f>
-        <v>hydro power plant</v>
+      <c r="AA15" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB15" s="28" t="str">
         <f>Sector_appliances!D6</f>
@@ -11560,9 +11553,9 @@
         <f>Sector_infrastructure!D7</f>
         <v>rail, double track, unelectrified</v>
       </c>
-      <c r="AA16" s="28" t="str">
-        <f>Sector_industry!D7</f>
-        <v xml:space="preserve">nuclear power plant </v>
+      <c r="AA16" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB16" s="28" t="str">
         <f>Sector_appliances!D7</f>
@@ -11669,9 +11662,9 @@
         <f>Sector_infrastructure!D8</f>
         <v>rail, single track, electrified</v>
       </c>
-      <c r="AA17" s="28" t="str">
-        <f>Sector_industry!D8</f>
-        <v>coal power plant</v>
+      <c r="AA17" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB17" s="28" t="str">
         <f>Sector_appliances!D8</f>
@@ -11770,9 +11763,9 @@
         <f>Sector_infrastructure!D9</f>
         <v>rail, double track, electrified</v>
       </c>
-      <c r="AA18" s="28" t="str">
-        <f>Sector_industry!D9</f>
-        <v>coal power plant without abatement measures</v>
+      <c r="AA18" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB18" s="28" t="str">
         <f>Sector_appliances!D9</f>
@@ -11872,9 +11865,9 @@
         <f>Sector_infrastructure!D10</f>
         <v>rail, high speed line</v>
       </c>
-      <c r="AA19" s="28" t="str">
-        <f>Sector_industry!D10</f>
-        <v>bio powerplant</v>
+      <c r="AA19" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB19" s="28" t="str">
         <f>Sector_appliances!D10</f>
@@ -11966,9 +11959,9 @@
         <f>Sector_infrastructure!D11</f>
         <v>electricity grid, high and medium voltage</v>
       </c>
-      <c r="AA20" s="28" t="str">
-        <f>Sector_industry!D11</f>
-        <v>oil power plant</v>
+      <c r="AA20" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB20" s="28" t="str">
         <f>Sector_appliances!D11</f>
@@ -12060,9 +12053,9 @@
         <f>Sector_infrastructure!D12</f>
         <v>electricity grid, low voltage and distribution</v>
       </c>
-      <c r="AA21" s="28" t="str">
-        <f>Sector_industry!D12</f>
-        <v>geothermal power plant</v>
+      <c r="AA21" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB21" s="28" t="str">
         <f>Sector_appliances!D12</f>
@@ -12152,9 +12145,9 @@
         <f>Sector_infrastructure!D13</f>
         <v>electricitiy grid, transformation</v>
       </c>
-      <c r="AA22" s="28" t="str">
-        <f>Sector_industry!D13</f>
-        <v>IGCC power plant</v>
+      <c r="AA22" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB22" s="28" t="str">
         <f>Sector_appliances!D13</f>
@@ -12242,9 +12235,9 @@
         <f>Sector_infrastructure!D14</f>
         <v>pipelines and pumping stations</v>
       </c>
-      <c r="AA23" s="28" t="str">
-        <f>Sector_industry!D14</f>
-        <v>light oil combined cycle</v>
+      <c r="AA23" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB23" s="32"/>
       <c r="AC23" s="28" t="str">
@@ -12319,9 +12312,9 @@
         <v>nonres_health_standard</v>
       </c>
       <c r="Z24" s="32"/>
-      <c r="AA24" s="28" t="str">
-        <f>Sector_industry!D15</f>
-        <v>gas combined cycle power plant</v>
+      <c r="AA24" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB24" s="32"/>
       <c r="AC24" s="28" t="str">
@@ -12396,9 +12389,9 @@
         <v>nonres_health_efficient</v>
       </c>
       <c r="Z25" s="32"/>
-      <c r="AA25" s="28" t="str">
-        <f>Sector_industry!D16</f>
-        <v>advanced coal power plant with CCS</v>
+      <c r="AA25" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB25" s="32"/>
       <c r="AC25" s="28" t="str">
@@ -12469,9 +12462,9 @@
         <v>nonres_health_ZEB</v>
       </c>
       <c r="Z26" s="32"/>
-      <c r="AA26" s="28" t="str">
-        <f>Sector_industry!D17</f>
-        <v>coal power plant with CCS</v>
+      <c r="AA26" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB26" s="32"/>
       <c r="AC26" s="28" t="str">
@@ -12535,9 +12528,9 @@
         <v>non_res_hotels_restaurants_non_standard</v>
       </c>
       <c r="Z27" s="32"/>
-      <c r="AA27" s="28" t="str">
-        <f>Sector_industry!D18</f>
-        <v>biomass power plant with CCS</v>
+      <c r="AA27" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB27" s="32"/>
       <c r="AC27" s="28" t="str">
@@ -12601,9 +12594,9 @@
         <v>non_res_hotels_restaurants_standard</v>
       </c>
       <c r="Z28" s="32"/>
-      <c r="AA28" s="28" t="str">
-        <f>Sector_industry!D19</f>
-        <v>gas combined cycle power plant with CCS</v>
+      <c r="AA28" s="28" t="e">
+        <f>Sector_industry!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AB28" s="32"/>
       <c r="AC28" s="28" t="str">
@@ -14895,7 +14888,7 @@
       </c>
       <c r="S84" s="28" t="str">
         <f>Products_m3!D75</f>
-        <v xml:space="preserve">concentrating solar power plant (CSP) </v>
+        <v>concentrating solar power plant (CSP)</v>
       </c>
       <c r="AC84" s="28" t="str">
         <f>EoL_Products_m4!D75</f>
@@ -14923,7 +14916,7 @@
       </c>
       <c r="S85" s="28" t="str">
         <f>Products_m3!D76</f>
-        <v xml:space="preserve">wind power plant onshore </v>
+        <v>wind power plant onshore</v>
       </c>
       <c r="AC85" s="28" t="str">
         <f>EoL_Products_m4!D76</f>
@@ -15007,7 +15000,7 @@
       </c>
       <c r="S88" s="28" t="str">
         <f>Products_m3!D79</f>
-        <v xml:space="preserve">nuclear power plant </v>
+        <v>nuclear power plant</v>
       </c>
       <c r="AC88" s="28" t="str">
         <f>EoL_Products_m4!D79</f>
@@ -26496,7 +26489,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>10</v>
@@ -26513,7 +26506,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>367</v>
@@ -26528,7 +26521,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>368</v>
@@ -26558,7 +26551,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>370</v>
@@ -26674,7 +26667,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26688,7 +26681,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>10</v>
@@ -26705,7 +26698,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D2" t="s">
         <v>801</v>
@@ -26720,7 +26713,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D3" t="s">
         <v>802</v>
@@ -26750,7 +26743,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D5" t="s">
         <v>804</v>
@@ -26968,7 +26961,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>10</v>
@@ -26985,7 +26978,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D2" t="s">
         <v>846</v>
@@ -27000,7 +26993,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D3" t="s">
         <v>847</v>
@@ -27030,7 +27023,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D5" t="s">
         <v>848</v>
@@ -27145,8 +27138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27160,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>10</v>
@@ -27177,7 +27170,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>859</v>
@@ -27192,10 +27185,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>860</v>
+        <v>1049</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -27210,7 +27203,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>861</v>
+        <v>1051</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -27222,10 +27215,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -27239,7 +27232,7 @@
         <v>43671</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -27253,7 +27246,7 @@
         <v>43671</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>864</v>
+        <v>1050</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -27267,7 +27260,7 @@
         <v>82</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -27278,8 +27271,11 @@
         <v>83</v>
       </c>
       <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>1048</v>
+      </c>
       <c r="D9" s="41" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -27290,7 +27286,7 @@
         <v>349</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -27298,7 +27294,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" s="41" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -27306,23 +27302,29 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" s="41" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>1048</v>
+      </c>
       <c r="D13" s="41" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>1048</v>
+      </c>
       <c r="D14" s="41" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -27330,15 +27332,18 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" s="41" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>1048</v>
+      </c>
       <c r="D16" s="41" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -27346,7 +27351,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -27354,7 +27359,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -27362,7 +27367,7 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="41" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -27378,7 +27383,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27392,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>10</v>
@@ -27409,7 +27414,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D2" t="s">
         <v>317</v>
@@ -27424,7 +27429,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="D3" t="s">
         <v>318</v>
@@ -27454,7 +27459,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D5" t="s">
         <v>320</v>
@@ -27596,7 +27601,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D2" t="s">
         <v>331</v>
@@ -27686,7 +27691,7 @@
         <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -27699,7 +27704,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="D9" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -27708,7 +27713,7 @@
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -27717,7 +27722,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -27727,7 +27732,7 @@
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -27736,7 +27741,7 @@
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -27745,7 +27750,7 @@
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -27754,7 +27759,7 @@
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="E15">
         <v>13</v>
@@ -27763,7 +27768,7 @@
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -27772,7 +27777,7 @@
     </row>
     <row r="17" spans="4:11" ht="15" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -27781,7 +27786,7 @@
     </row>
     <row r="18" spans="4:11" ht="15" x14ac:dyDescent="0.35">
       <c r="D18" s="26" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -27790,7 +27795,7 @@
     </row>
     <row r="19" spans="4:11" ht="15" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -27799,7 +27804,7 @@
     </row>
     <row r="20" spans="4:11" ht="15" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -27808,7 +27813,7 @@
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E21">
         <v>19</v>
@@ -27817,7 +27822,7 @@
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -27826,7 +27831,7 @@
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E23">
         <v>21</v>
@@ -27901,7 +27906,7 @@
     </row>
     <row r="32" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -27909,7 +27914,7 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E33">
         <v>31</v>
@@ -27917,7 +27922,7 @@
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="E34">
         <v>32</v>
@@ -27925,7 +27930,7 @@
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E35">
         <v>33</v>
@@ -27941,7 +27946,7 @@
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E37">
         <v>35</v>
@@ -27949,7 +27954,7 @@
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E38">
         <v>36</v>
@@ -27957,7 +27962,7 @@
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E39">
         <v>37</v>
@@ -27965,7 +27970,7 @@
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E40">
         <v>38</v>
@@ -27973,7 +27978,7 @@
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E41">
         <v>39</v>
@@ -27981,7 +27986,7 @@
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E42">
         <v>40</v>
@@ -27989,7 +27994,7 @@
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E43">
         <v>41</v>
@@ -27997,7 +28002,7 @@
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E44">
         <v>42</v>
@@ -28005,7 +28010,7 @@
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E45">
         <v>43</v>
@@ -28013,7 +28018,7 @@
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E46">
         <v>44</v>
@@ -28021,7 +28026,7 @@
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E47">
         <v>45</v>
@@ -28029,7 +28034,7 @@
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E48">
         <v>46</v>
@@ -28037,7 +28042,7 @@
     </row>
     <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E49">
         <v>47</v>
@@ -28045,7 +28050,7 @@
     </row>
     <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E50">
         <v>48</v>
@@ -28053,7 +28058,7 @@
     </row>
     <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="E51">
         <v>49</v>
@@ -28061,7 +28066,7 @@
     </row>
     <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E52">
         <v>50</v>
@@ -28069,7 +28074,7 @@
     </row>
     <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E53">
         <v>51</v>
@@ -28077,7 +28082,7 @@
     </row>
     <row r="54" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E54">
         <v>52</v>
@@ -28085,7 +28090,7 @@
     </row>
     <row r="55" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E55">
         <v>53</v>
@@ -28093,7 +28098,7 @@
     </row>
     <row r="56" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E56">
         <v>54</v>
@@ -28101,7 +28106,7 @@
     </row>
     <row r="57" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E57">
         <v>55</v>
@@ -28109,7 +28114,7 @@
     </row>
     <row r="58" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E58">
         <v>56</v>
@@ -28117,7 +28122,7 @@
     </row>
     <row r="59" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E59">
         <v>57</v>
@@ -28126,7 +28131,7 @@
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E60">
         <v>58</v>
@@ -28134,7 +28139,7 @@
     </row>
     <row r="61" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E61">
         <v>59</v>
@@ -28142,7 +28147,7 @@
     </row>
     <row r="62" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E62">
         <v>60</v>
@@ -28150,7 +28155,7 @@
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E63">
         <v>61</v>
@@ -28158,7 +28163,7 @@
     </row>
     <row r="64" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E64">
         <v>62</v>
@@ -28166,7 +28171,7 @@
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E65">
         <v>63</v>
@@ -28174,7 +28179,7 @@
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E66">
         <v>64</v>
@@ -28182,7 +28187,7 @@
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E67">
         <v>65</v>
@@ -28190,7 +28195,7 @@
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E68">
         <v>66</v>
@@ -28198,7 +28203,7 @@
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E69">
         <v>67</v>
@@ -28206,7 +28211,7 @@
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E70">
         <v>68</v>
@@ -28214,7 +28219,7 @@
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E71">
         <v>69</v>
@@ -28222,7 +28227,7 @@
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E72">
         <v>70</v>
@@ -28230,7 +28235,7 @@
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E73">
         <v>71</v>
@@ -28238,7 +28243,7 @@
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E74">
         <v>72</v>
@@ -28246,7 +28251,7 @@
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E75">
         <v>73</v>
@@ -28254,7 +28259,7 @@
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E76">
         <v>74</v>
@@ -28262,7 +28267,7 @@
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E77">
         <v>75</v>
@@ -28270,7 +28275,7 @@
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E78">
         <v>76</v>
@@ -28278,7 +28283,7 @@
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E79">
         <v>77</v>
@@ -28286,7 +28291,7 @@
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E80">
         <v>78</v>
@@ -28294,7 +28299,7 @@
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E81">
         <v>79</v>
@@ -28302,7 +28307,7 @@
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E82">
         <v>80</v>
@@ -28310,7 +28315,7 @@
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E83">
         <v>81</v>
@@ -28318,7 +28323,7 @@
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E84">
         <v>82</v>
@@ -28326,7 +28331,7 @@
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E85">
         <v>83</v>
@@ -28334,7 +28339,7 @@
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E86">
         <v>84</v>
@@ -28342,7 +28347,7 @@
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E87">
         <v>85</v>
@@ -28350,7 +28355,7 @@
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E88">
         <v>86</v>
@@ -28358,7 +28363,7 @@
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E89">
         <v>87</v>
@@ -28366,7 +28371,7 @@
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E90">
         <v>88</v>
@@ -28374,7 +28379,7 @@
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E91">
         <v>89</v>

--- a/Data/RECC_Classifications_Master_V2.0.xlsx
+++ b/Data/RECC_Classifications_Master_V2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="16" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover_Dimensions_Aspects" sheetId="8" r:id="rId1"/>
@@ -9429,11 +9429,11 @@
   </sheetPr>
   <dimension ref="A1:BJ1311"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomRight" activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10903,9 +10903,9 @@
         <f>Sector_infrastructure!D2</f>
         <v>roads, local</v>
       </c>
-      <c r="AA11" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA11" s="28" t="str">
+        <f>Sector_industry!D2</f>
+        <v>solar photovoltaic power plant</v>
       </c>
       <c r="AB11" s="28" t="str">
         <f>Sector_appliances!D2</f>
@@ -11036,9 +11036,9 @@
         <f>Sector_infrastructure!D3</f>
         <v>roads, collectors and distributors</v>
       </c>
-      <c r="AA12" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA12" s="28" t="str">
+        <f>Sector_industry!D3</f>
+        <v>concentrating solar power plant (CSP)</v>
       </c>
       <c r="AB12" s="28" t="str">
         <f>Sector_appliances!D3</f>
@@ -11166,9 +11166,9 @@
         <f>Sector_infrastructure!D4</f>
         <v>roads, arterial</v>
       </c>
-      <c r="AA13" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA13" s="28" t="str">
+        <f>Sector_industry!D4</f>
+        <v>wind power plant onshore</v>
       </c>
       <c r="AB13" s="28" t="str">
         <f>Sector_appliances!D4</f>
@@ -11296,9 +11296,9 @@
         <f>Sector_infrastructure!D5</f>
         <v>roads, freeway</v>
       </c>
-      <c r="AA14" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA14" s="28" t="str">
+        <f>Sector_industry!D5</f>
+        <v>wind power plant offshore</v>
       </c>
       <c r="AB14" s="28" t="str">
         <f>Sector_appliances!D5</f>
@@ -11426,9 +11426,9 @@
         <f>Sector_infrastructure!D6</f>
         <v>rail, single track, unelectrified</v>
       </c>
-      <c r="AA15" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA15" s="28" t="str">
+        <f>Sector_industry!D6</f>
+        <v>hydro power plant</v>
       </c>
       <c r="AB15" s="28" t="str">
         <f>Sector_appliances!D6</f>
@@ -11553,9 +11553,9 @@
         <f>Sector_infrastructure!D7</f>
         <v>rail, double track, unelectrified</v>
       </c>
-      <c r="AA16" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA16" s="28" t="str">
+        <f>Sector_industry!D7</f>
+        <v>nuclear power plant</v>
       </c>
       <c r="AB16" s="28" t="str">
         <f>Sector_appliances!D7</f>
@@ -11662,9 +11662,9 @@
         <f>Sector_infrastructure!D8</f>
         <v>rail, single track, electrified</v>
       </c>
-      <c r="AA17" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA17" s="28" t="str">
+        <f>Sector_industry!D8</f>
+        <v>coal power plant</v>
       </c>
       <c r="AB17" s="28" t="str">
         <f>Sector_appliances!D8</f>
@@ -11763,9 +11763,9 @@
         <f>Sector_infrastructure!D9</f>
         <v>rail, double track, electrified</v>
       </c>
-      <c r="AA18" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA18" s="28" t="str">
+        <f>Sector_industry!D9</f>
+        <v>coal power plant without abatement measures</v>
       </c>
       <c r="AB18" s="28" t="str">
         <f>Sector_appliances!D9</f>
@@ -11865,9 +11865,9 @@
         <f>Sector_infrastructure!D10</f>
         <v>rail, high speed line</v>
       </c>
-      <c r="AA19" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA19" s="28" t="str">
+        <f>Sector_industry!D10</f>
+        <v>bio powerplant</v>
       </c>
       <c r="AB19" s="28" t="str">
         <f>Sector_appliances!D10</f>
@@ -11959,9 +11959,9 @@
         <f>Sector_infrastructure!D11</f>
         <v>electricity grid, high and medium voltage</v>
       </c>
-      <c r="AA20" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA20" s="28" t="str">
+        <f>Sector_industry!D11</f>
+        <v>oil power plant</v>
       </c>
       <c r="AB20" s="28" t="str">
         <f>Sector_appliances!D11</f>
@@ -12053,9 +12053,9 @@
         <f>Sector_infrastructure!D12</f>
         <v>electricity grid, low voltage and distribution</v>
       </c>
-      <c r="AA21" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA21" s="28" t="str">
+        <f>Sector_industry!D12</f>
+        <v>geothermal power plant</v>
       </c>
       <c r="AB21" s="28" t="str">
         <f>Sector_appliances!D12</f>
@@ -12145,9 +12145,9 @@
         <f>Sector_infrastructure!D13</f>
         <v>electricitiy grid, transformation</v>
       </c>
-      <c r="AA22" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA22" s="28" t="str">
+        <f>Sector_industry!D13</f>
+        <v>IGCC power plant</v>
       </c>
       <c r="AB22" s="28" t="str">
         <f>Sector_appliances!D13</f>
@@ -12235,9 +12235,9 @@
         <f>Sector_infrastructure!D14</f>
         <v>pipelines and pumping stations</v>
       </c>
-      <c r="AA23" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA23" s="28" t="str">
+        <f>Sector_industry!D14</f>
+        <v>light oil combined cycle</v>
       </c>
       <c r="AB23" s="32"/>
       <c r="AC23" s="28" t="str">
@@ -12312,9 +12312,9 @@
         <v>nonres_health_standard</v>
       </c>
       <c r="Z24" s="32"/>
-      <c r="AA24" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA24" s="28" t="str">
+        <f>Sector_industry!D15</f>
+        <v>gas combined cycle power plant</v>
       </c>
       <c r="AB24" s="32"/>
       <c r="AC24" s="28" t="str">
@@ -12389,9 +12389,9 @@
         <v>nonres_health_efficient</v>
       </c>
       <c r="Z25" s="32"/>
-      <c r="AA25" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA25" s="28" t="str">
+        <f>Sector_industry!D16</f>
+        <v>advanced coal power plant with CCS</v>
       </c>
       <c r="AB25" s="32"/>
       <c r="AC25" s="28" t="str">
@@ -12462,9 +12462,9 @@
         <v>nonres_health_ZEB</v>
       </c>
       <c r="Z26" s="32"/>
-      <c r="AA26" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA26" s="28" t="str">
+        <f>Sector_industry!D17</f>
+        <v>coal power plant with CCS</v>
       </c>
       <c r="AB26" s="32"/>
       <c r="AC26" s="28" t="str">
@@ -12528,9 +12528,9 @@
         <v>non_res_hotels_restaurants_non_standard</v>
       </c>
       <c r="Z27" s="32"/>
-      <c r="AA27" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA27" s="28" t="str">
+        <f>Sector_industry!D18</f>
+        <v>biomass power plant with CCS</v>
       </c>
       <c r="AB27" s="32"/>
       <c r="AC27" s="28" t="str">
@@ -12594,9 +12594,9 @@
         <v>non_res_hotels_restaurants_standard</v>
       </c>
       <c r="Z28" s="32"/>
-      <c r="AA28" s="28" t="e">
-        <f>Sector_industry!#REF!</f>
-        <v>#REF!</v>
+      <c r="AA28" s="28" t="str">
+        <f>Sector_industry!D19</f>
+        <v>gas combined cycle power plant with CCS</v>
       </c>
       <c r="AB28" s="32"/>
       <c r="AC28" s="28" t="str">
@@ -27138,8 +27138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27383,7 +27383,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46046,7 +46046,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/RECC_Classifications_Master_V2.0.xlsx
+++ b/Data/RECC_Classifications_Master_V2.0.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1053">
   <si>
     <t>Name</t>
   </si>
@@ -4184,6 +4184,9 @@
   </si>
   <si>
     <t>wind power plant onshore</t>
+  </si>
+  <si>
+    <t>remelting of #1 Copper scrap</t>
   </si>
 </sst>
 </file>
@@ -5222,7 +5225,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9430,10 +9433,10 @@
   <dimension ref="A1:BJ1311"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AC7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AA35" sqref="AA35"/>
+      <selection pane="bottomRight" activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12161,7 +12164,7 @@
         <f>Waste_Mgt_Industries_i5!D13</f>
         <v>air sorter</v>
       </c>
-      <c r="AE22" s="7" t="str">
+      <c r="AE22" s="28" t="str">
         <f>Waste_Scrap_m5!D13</f>
         <v>#1 Copper scrap</v>
       </c>
@@ -13131,7 +13134,10 @@
         <f>EoL_Products_m4!D28</f>
         <v>EoL MFH_non-standard</v>
       </c>
-      <c r="AD37" s="32"/>
+      <c r="AD37" s="28" t="str">
+        <f>Waste_Mgt_Industries_i5!D28</f>
+        <v>remelting of #1 Copper scrap</v>
+      </c>
       <c r="AE37" s="7" t="str">
         <f>Waste_Scrap_m5!D28</f>
         <v>thermoplastic waste</v>
@@ -27569,7 +27575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -28488,10 +28494,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28780,6 +28786,14 @@
       </c>
       <c r="E27">
         <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
